--- a/DECS Excel Add-Ins/test files/test_data.xlsx
+++ b/DECS Excel Add-Ins/test files/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJDELANEY\OneDrive - University of California, San Diego Health\Documents\GitHub\ExcelPostprocessor\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2735B411-8091-4AB0-A2FC-CD27F1208573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05BE035A-C5A2-4B5A-A347-D62C03E793CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF7B3E-0DC9-493A-A65D-EC2C69221B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>MRN</t>
   </si>
@@ -51,12 +51,33 @@
   </si>
   <si>
     <t>10.83 pH, TDS 283</t>
+  </si>
+  <si>
+    <t>oidvhiaduhviahb</t>
+  </si>
+  <si>
+    <t>ajnoadfnboadfinbo[adfnoba</t>
+  </si>
+  <si>
+    <t>kjoijojaionvaosdinvo  vbajfba</t>
+  </si>
+  <si>
+    <t>l pasasld al;sd jgl;asj gl;asj ;lgjkasl;jkg al;</t>
+  </si>
+  <si>
+    <t>JUNK</t>
+  </si>
+  <si>
+    <t>REPORT DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -107,6 +128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,56 +492,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1234</v>
+        <v>1234567</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2345</v>
+        <v>23456789</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36525.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3456</v>
+        <v>3456789</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4567</v>
+        <v>45678901</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39270</v>
       </c>
     </row>
   </sheetData>
@@ -764,20 +816,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,6 +852,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF459C-A94D-49F6-BCDD-3C21A2A42432}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46431E0-3E3F-4AE2-AE9B-B827FA65C906}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -814,12 +874,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF459C-A94D-49F6-BCDD-3C21A2A42432}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DECS Excel Add-Ins/test files/test_data.xlsx
+++ b/DECS Excel Add-Ins/test files/test_data.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF7B3E-0DC9-493A-A65D-EC2C69221B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219D223-FF33-43C7-B2CE-415404809C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
     <sheet name="Labs" sheetId="2" r:id="rId2"/>
+    <sheet name="with hidden columns" sheetId="4" r:id="rId3"/>
+    <sheet name="more labs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>MRN</t>
   </si>
@@ -494,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,6 +579,183 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEE2AD-3FF4-4EEA-86CE-ED2D8F9BD38A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234567</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36525.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3456789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45678901</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DFA2BC-F8F7-4069-86FF-CEDE9DC604D4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234567</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36525.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3456789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45678901</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -816,20 +995,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,14 +1031,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF459C-A94D-49F6-BCDD-3C21A2A42432}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46431E0-3E3F-4AE2-AE9B-B827FA65C906}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -874,4 +1045,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF459C-A94D-49F6-BCDD-3C21A2A42432}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DECS Excel Add-Ins/test files/test_data.xlsx
+++ b/DECS Excel Add-Ins/test files/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219D223-FF33-43C7-B2CE-415404809C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8969D9AF-0445-400A-9D4C-18DEF686555E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>MRN</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>REPORT DATE</t>
+  </si>
+  <si>
+    <t>Ok to update</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -131,6 +134,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,19 +588,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEE2AD-3FF4-4EEA-86CE-ED2D8F9BD38A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,11 +610,14 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234567</v>
       </c>
@@ -620,11 +627,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>37250</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23456789</v>
       </c>
@@ -634,11 +644,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>36525.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3456789</v>
       </c>
@@ -648,11 +661,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>41653</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45678901</v>
       </c>
@@ -662,12 +678,12 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>39270</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
